--- a/other/commond.xlsx
+++ b/other/commond.xlsx
@@ -4,19 +4,52 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11595" activeTab="1"/>
+    <workbookView windowWidth="21000" windowHeight="11595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="adb" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="dumpsys" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="83">
+  <si>
+    <t>客户端：用于发送命令。客户端在开发计算机上运行。您可以通过发出 adb 命令从命令行终端调用客户端。</t>
+  </si>
+  <si>
+    <t>守护进程 (adbd)：在设备上运行命令。守护进程在每个设备上作为后台进程运行。</t>
+  </si>
+  <si>
+    <t>服务器：管理客户端和守护进程之间的通信。服务器在开发计算机上作为后台进程运行。</t>
+  </si>
+  <si>
+    <t>两种连接方式:1. 直接使用数据线连接; 2. 使用wifi连接</t>
+  </si>
+  <si>
+    <t>这里说明一下wifi连接的过程:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">环境: 1. Android设备与PC在同一网络里面; </t>
+  </si>
+  <si>
+    <t>1. 使用usb数据线连接Android设备到PC,确保adb连接成功</t>
+  </si>
+  <si>
+    <t>2. PC端使用cmd命令行选中Android设备执行:adb tcpip 5555,打开tcp端口,5555不是固定的</t>
+  </si>
+  <si>
+    <t>3. Android设备:打开设置-系统信息-网络-IP,记录设备的网络ip</t>
+  </si>
+  <si>
+    <t>4. 继续执行命令: adb connect ip:5555 进行连接Android设备</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5. 使用命令: adb devices查看,如果列表中有ip:5555即连接成功,可以拔掉usb数据线使用WiFi连接Android设备了 </t>
+  </si>
   <si>
     <t>adb start-server</t>
   </si>
@@ -210,7 +243,8 @@
     <t>adb shell rm</t>
   </si>
   <si>
-    <t>shell 完全遵循Linux的命令</t>
+    <t>shell 完全遵循Linux的命令: 
+但是很多不是没有权限就是not found</t>
   </si>
   <si>
     <t>adb shell ls</t>
@@ -226,6 +260,12 @@
   </si>
   <si>
     <t>adb shell cd</t>
+  </si>
+  <si>
+    <t>adb shell ls /system/bin</t>
+  </si>
+  <si>
+    <t>dumpsys 是一种在 Android 设备上运行的工具，可提供有关系统服务的信息</t>
   </si>
 </sst>
 </file>
@@ -233,12 +273,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +293,61 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -267,15 +362,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,121 +436,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -413,187 +446,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -607,26 +640,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,21 +675,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,6 +705,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -704,157 +722,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -863,6 +896,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1232,10 +1268,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A2:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -1244,101 +1280,59 @@
     <col min="2" max="2" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -1346,261 +1340,360 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>34</v>
-      </c>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" ht="15" spans="1:1">
-      <c r="A26" s="2"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B31" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B38" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B40" t="s">
-        <v>59</v>
-      </c>
-      <c r="C40" t="s">
-        <v>60</v>
-      </c>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" ht="15" spans="1:1">
+      <c r="A40" s="2"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>64</v>
+        <v>55</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B44" s="3"/>
+        <v>57</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B45" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B46" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="B46" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" s="3"/>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="B47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1"/>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1"/>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="1"/>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" t="s">
+        <v>70</v>
+      </c>
+      <c r="C54" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1"/>
     </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="4"/>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="4"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="4"/>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="4"/>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="1"/>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1"/>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1"/>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="1"/>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="1"/>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="1"/>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B43:B48"/>
+    <mergeCell ref="B57:B62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1613,12 +1706,18 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
